--- a/raman_fitting/results/DW/DW_FitParameters_Model_4peaks.xlsx
+++ b/raman_fitting/results/DW/DW_FitParameters_Model_4peaks.xlsx
@@ -163,7 +163,7 @@
     <t>Fit succeeded.</t>
   </si>
   <si>
-    <t>2021-04-15 16:00</t>
+    <t>2021-04-16 12:00</t>
   </si>
 </sst>
 </file>
